--- a/!Document/개발자료/3. Design/DB.xlsx
+++ b/!Document/개발자료/3. Design/DB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyw\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyw\Desktop\SourGrape\!Document\개발자료\3. Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,14 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>취향랭킹노관심게임목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;&gt;요거는 하나로 할지 랭킹별로 나눌지 상의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제작사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,6 +127,14 @@
   </si>
   <si>
     <t>삭제여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내린날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요거는 좀 더 생각 해보고…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +270,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,6 +299,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -584,23 +593,25 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -643,19 +654,20 @@
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
@@ -664,8 +676,11 @@
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -674,13 +689,8 @@
         <v>18</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
@@ -689,12 +699,8 @@
       <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -726,7 +732,7 @@
       </c>
       <c r="B16" s="3"/>
       <c r="D16" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
@@ -739,13 +745,13 @@
         <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/!Document/개발자료/3. Design/DB.xlsx
+++ b/!Document/개발자료/3. Design/DB.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +139,90 @@
   </si>
   <si>
     <t>요거는 좀 더 생각 해보고…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoNumID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취향랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신의취향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임추천(태그)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기데이터1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세게임정보화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노관심게임등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점매기기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태그삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일요일 13시까지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,7 +358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -308,6 +396,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -590,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -605,7 +699,7 @@
     <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,30 +709,34 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -646,7 +744,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -660,8 +758,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -669,7 +767,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -683,8 +781,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -692,7 +790,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -702,8 +800,8 @@
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -711,7 +809,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -725,8 +823,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -759,4 +857,155 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1">
+    <sortState ref="A2:B15">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/!Document/개발자료/3. Design/DB.xlsx
+++ b/!Document/개발자료/3. Design/DB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>페이스북아이디?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>친구목록?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>태그</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요거는 좀 더 생각 해보고…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>autoNumID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,6 +211,10 @@
   </si>
   <si>
     <t>일요일 13시까지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facebookID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +274,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -352,13 +344,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -402,6 +416,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -686,35 +709,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>1</v>
@@ -725,20 +747,18 @@
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="F2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -746,22 +766,22 @@
     </row>
     <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -769,22 +789,22 @@
     </row>
     <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3"/>
       <c r="D10" s="10"/>
@@ -792,10 +812,10 @@
     </row>
     <row r="11" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -803,7 +823,7 @@
     <row r="12" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -811,45 +831,45 @@
     </row>
     <row r="14" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3"/>
       <c r="D16" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="D17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -863,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -874,128 +894,128 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
